--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C15BD-09D3-7348-999A-32C11826D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109400AD-5A85-7A46-AD80-DA1099BA52F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
   <si>
     <t>DOI</t>
   </si>
@@ -173,13 +173,91 @@
   </si>
   <si>
     <t>Membrane potential (mV)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Membrane potential</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Protein count</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Current density</t>
+  </si>
+  <si>
+    <t>Withdrawal threshold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +271,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,17 +322,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,15 +651,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="211" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="211" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +678,23 @@
       <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -591,8 +710,23 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -608,8 +742,23 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -625,8 +774,23 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -642,8 +806,23 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -659,8 +838,23 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -676,8 +870,23 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -693,8 +902,23 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -710,8 +934,23 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -727,8 +966,23 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -744,8 +998,23 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -761,8 +1030,23 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -778,8 +1062,23 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -795,8 +1094,23 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -812,8 +1126,23 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -829,8 +1158,23 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -846,8 +1190,23 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -863,8 +1222,23 @@
       <c r="E18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -880,8 +1254,23 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -897,8 +1286,23 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -914,8 +1318,23 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -931,8 +1350,23 @@
       <c r="E22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -948,8 +1382,23 @@
       <c r="E23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -965,8 +1414,23 @@
       <c r="E24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -982,8 +1446,23 @@
       <c r="E25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -999,8 +1478,23 @@
       <c r="E26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1016,8 +1510,23 @@
       <c r="E27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1033,8 +1542,23 @@
       <c r="E28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1050,8 +1574,23 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1067,8 +1606,23 @@
       <c r="E30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1084,8 +1638,23 @@
       <c r="E31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1101,8 +1670,23 @@
       <c r="E32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1117,6 +1701,21 @@
       </c>
       <c r="E33" t="s">
         <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109400AD-5A85-7A46-AD80-DA1099BA52F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096AD76-8ED2-904A-A81D-79C7BA2B249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="110">
   <si>
     <t>DOI</t>
   </si>
@@ -251,6 +251,105 @@
   </si>
   <si>
     <t>Withdrawal threshold</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abm1756_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abo2709_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abo2709_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abo2709_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp8923_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abp9586_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq5096_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq5096_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.add0509_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.add0509_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.add0509_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.add4900_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade0385_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade4984_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade4984_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade6325_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade6325_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade6737_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade6737_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.ade6737_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adf9535_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adf9535_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adf9535_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adf9535_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adh4210_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adi3966_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.adi3966_zero_fig2</t>
   </si>
 </sst>
 </file>
@@ -651,230 +750,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="211" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="211" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
       <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
         <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
@@ -882,31 +999,34 @@
       <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>64</v>
@@ -915,30 +1035,33 @@
         <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>64</v>
@@ -947,126 +1070,138 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
       <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
         <v>64</v>
@@ -1075,30 +1210,33 @@
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
@@ -1107,126 +1245,138 @@
         <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
       </c>
       <c r="I15" t="s">
         <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
         <v>64</v>
@@ -1235,30 +1385,33 @@
         <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
@@ -1267,158 +1420,173 @@
         <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
       </c>
       <c r="I20" t="s">
         <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
       <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
         <v>57</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
       </c>
       <c r="I21" t="s">
         <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>69</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>68</v>
       </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="J23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>64</v>
@@ -1427,30 +1595,33 @@
         <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>64</v>
@@ -1459,30 +1630,33 @@
         <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>64</v>
@@ -1491,230 +1665,254 @@
         <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
       <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>73</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>74</v>
       </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
       <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>73</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>74</v>
       </c>
-      <c r="J28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
       <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
         <v>72</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>73</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>74</v>
       </c>
-      <c r="J29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>73</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>74</v>
       </c>
-      <c r="J30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>57</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>63</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>62</v>
       </c>
-      <c r="J32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>50</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>57</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>63</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>62</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096AD76-8ED2-904A-A81D-79C7BA2B249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A51899-52A0-D542-A73B-6314B2BDF860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
   <si>
     <t>DOI</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Potential</t>
   </si>
   <si>
-    <t>Membrane potential</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Protein count</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
@@ -350,6 +344,9 @@
   </si>
   <si>
     <t>10.1126:scisignal.adi3966_zero_fig2</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -752,18 +749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="211" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="211" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -798,7 +796,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -822,10 +820,10 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -833,7 +831,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -857,10 +855,10 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>59</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -892,10 +890,10 @@
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -903,7 +901,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -927,10 +925,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
         <v>59</v>
@@ -938,7 +936,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -973,7 +971,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -994,13 +992,13 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1029,13 +1027,13 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -1043,7 +1041,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1064,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1099,13 +1097,13 @@
         <v>60</v>
       </c>
       <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1134,13 +1132,13 @@
         <v>60</v>
       </c>
       <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
@@ -1148,7 +1146,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1169,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
         <v>59</v>
@@ -1183,7 +1181,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1204,13 +1202,13 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
         <v>59</v>
@@ -1218,7 +1216,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1239,13 +1237,13 @@
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
         <v>59</v>
@@ -1253,7 +1251,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1277,10 +1275,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1288,7 +1286,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1315,7 +1313,7 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
@@ -1323,7 +1321,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1350,7 +1348,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1358,7 +1356,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1379,13 +1377,13 @@
         <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
@@ -1393,7 +1391,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1414,13 +1412,13 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>
@@ -1428,7 +1426,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1452,10 +1450,10 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
@@ -1463,7 +1461,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1487,10 +1485,10 @@
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
@@ -1498,7 +1496,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1522,10 +1520,10 @@
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
         <v>59</v>
@@ -1533,7 +1531,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1557,10 +1555,10 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
         <v>59</v>
@@ -1568,7 +1566,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1589,13 +1587,13 @@
         <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
         <v>59</v>
@@ -1603,7 +1601,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1624,13 +1622,13 @@
         <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
         <v>59</v>
@@ -1638,7 +1636,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1659,13 +1657,13 @@
         <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
         <v>59</v>
@@ -1673,7 +1671,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1694,13 +1692,13 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
         <v>72</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s">
-        <v>74</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -1708,7 +1706,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1729,13 +1727,13 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
         <v>72</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" t="s">
-        <v>74</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
@@ -1743,7 +1741,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1764,13 +1762,13 @@
         <v>60</v>
       </c>
       <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
         <v>72</v>
-      </c>
-      <c r="I29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" t="s">
-        <v>74</v>
       </c>
       <c r="K29" t="s">
         <v>59</v>
@@ -1778,7 +1776,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1799,13 +1797,13 @@
         <v>60</v>
       </c>
       <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
         <v>72</v>
-      </c>
-      <c r="I30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" t="s">
-        <v>74</v>
       </c>
       <c r="K30" t="s">
         <v>59</v>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -1834,13 +1832,13 @@
         <v>60</v>
       </c>
       <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
         <v>64</v>
       </c>
-      <c r="I31" t="s">
-        <v>65</v>
-      </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1848,7 +1846,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1872,10 +1870,10 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
         <v>59</v>
@@ -1883,7 +1881,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1907,10 +1905,10 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
         <v>59</v>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A51899-52A0-D542-A73B-6314B2BDF860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B1A2C-36E7-9443-8E72-875EE7AF1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="211" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="211" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1695,10 +1695,10 @@
         <v>70</v>
       </c>
       <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
         <v>71</v>
-      </c>
-      <c r="J27" t="s">
-        <v>72</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -1730,10 +1730,10 @@
         <v>70</v>
       </c>
       <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
         <v>71</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
@@ -1765,10 +1765,10 @@
         <v>70</v>
       </c>
       <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
         <v>71</v>
-      </c>
-      <c r="J29" t="s">
-        <v>72</v>
       </c>
       <c r="K29" t="s">
         <v>59</v>
@@ -1800,10 +1800,10 @@
         <v>70</v>
       </c>
       <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
         <v>71</v>
-      </c>
-      <c r="J30" t="s">
-        <v>72</v>
       </c>
       <c r="K30" t="s">
         <v>59</v>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B1A2C-36E7-9443-8E72-875EE7AF1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF98BB2-2082-9645-96FF-F96B261A6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="106">
   <si>
     <t>DOI</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -239,12 +236,6 @@
   </si>
   <si>
     <t>Relative luminescence</t>
-  </si>
-  <si>
-    <t>Current density</t>
-  </si>
-  <si>
-    <t>Withdrawal threshold</t>
   </si>
   <si>
     <t>Fig Index</t>
@@ -749,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="211" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:J30"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="211" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -796,7 +787,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -820,10 +811,10 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -831,7 +822,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -855,10 +846,10 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
         <v>59</v>
@@ -866,7 +857,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -890,10 +881,10 @@
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -901,7 +892,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -925,10 +916,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>59</v>
@@ -936,7 +927,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -971,7 +962,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1006,7 +997,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1041,7 +1032,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1076,7 +1067,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1097,13 +1088,13 @@
         <v>60</v>
       </c>
       <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
@@ -1111,7 +1102,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1132,13 +1123,13 @@
         <v>60</v>
       </c>
       <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
@@ -1146,7 +1137,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1167,13 +1158,13 @@
         <v>60</v>
       </c>
       <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
         <v>59</v>
@@ -1181,7 +1172,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1216,7 +1207,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1251,7 +1242,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1275,10 +1266,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1286,7 +1277,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1313,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
@@ -1321,7 +1312,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1348,7 +1339,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1356,7 +1347,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1391,7 +1382,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1426,7 +1417,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1450,10 +1441,10 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
@@ -1461,7 +1452,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1485,10 +1476,10 @@
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
@@ -1496,7 +1487,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1520,10 +1511,10 @@
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
         <v>59</v>
@@ -1531,7 +1522,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1555,10 +1546,10 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
         <v>59</v>
@@ -1566,7 +1557,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1601,7 +1592,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1636,7 +1627,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1671,7 +1662,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1692,13 +1683,13 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
         <v>70</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" t="s">
-        <v>71</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -1706,7 +1697,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1727,13 +1718,13 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
         <v>70</v>
-      </c>
-      <c r="I28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" t="s">
-        <v>71</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
@@ -1741,7 +1732,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1762,13 +1753,13 @@
         <v>60</v>
       </c>
       <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
         <v>70</v>
-      </c>
-      <c r="I29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" t="s">
-        <v>71</v>
       </c>
       <c r="K29" t="s">
         <v>59</v>
@@ -1776,7 +1767,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1797,13 +1788,13 @@
         <v>60</v>
       </c>
       <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
         <v>70</v>
-      </c>
-      <c r="I30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" t="s">
-        <v>71</v>
       </c>
       <c r="K30" t="s">
         <v>59</v>
@@ -1811,7 +1802,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -1835,10 +1826,10 @@
         <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1846,7 +1837,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1873,7 +1864,7 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
         <v>59</v>
@@ -1881,7 +1872,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1908,7 +1899,7 @@
         <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
         <v>59</v>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF98BB2-2082-9645-96FF-F96B261A6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEC8B56-E57E-1D4A-A976-1D6A024EEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="107">
   <si>
     <t>DOI</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Cell count</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
@@ -338,6 +335,12 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="211" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,7 +755,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -787,7 +790,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -811,10 +814,10 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -892,7 +895,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -927,7 +930,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -962,7 +965,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1032,7 +1035,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1067,7 +1070,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1102,7 +1105,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1266,10 +1269,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1304,7 +1307,7 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1339,7 +1342,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1441,10 +1444,10 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1476,10 +1479,10 @@
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1557,7 +1560,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1627,7 +1630,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1683,13 +1686,13 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
         <v>69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" t="s">
-        <v>70</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1718,13 +1721,13 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
         <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" t="s">
-        <v>70</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1753,13 +1756,13 @@
         <v>60</v>
       </c>
       <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s">
         <v>69</v>
-      </c>
-      <c r="I29" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" t="s">
-        <v>70</v>
       </c>
       <c r="K29" t="s">
         <v>59</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1788,13 +1791,13 @@
         <v>60</v>
       </c>
       <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
         <v>69</v>
-      </c>
-      <c r="I30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" t="s">
-        <v>70</v>
       </c>
       <c r="K30" t="s">
         <v>59</v>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1864,7 +1867,7 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s">
         <v>59</v>
@@ -1872,7 +1875,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1899,7 +1902,7 @@
         <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
         <v>59</v>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEC8B56-E57E-1D4A-A976-1D6A024EEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E2BB9-476D-674D-9662-815EEA6B6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="106">
   <si>
     <t>DOI</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>10.1126:scisignal.add0509_zero_fig2</t>
-  </si>
-  <si>
-    <t>10.1126:scisignal.add0509_zero_fig3</t>
   </si>
   <si>
     <t>10.1126:scisignal.add4900_zero_fig1</t>
@@ -741,14 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="211" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -814,10 +812,10 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
         <v>105</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1269,10 +1267,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1307,7 +1305,7 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
@@ -1318,31 +1316,31 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1353,7 +1351,7 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1365,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
@@ -1388,7 +1386,7 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1400,19 +1398,19 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>
@@ -1429,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1444,10 +1442,10 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
@@ -1458,31 +1456,31 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
@@ -1499,13 +1497,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>56</v>
@@ -1528,31 +1526,31 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
         <v>59</v>
@@ -1569,13 +1567,13 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
         <v>60</v>
@@ -1604,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>60</v>
@@ -1633,31 +1631,31 @@
         <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
         <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
         <v>59</v>
@@ -1674,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1709,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1744,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1773,34 +1771,34 @@
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1808,7 +1806,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1820,22 +1818,22 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1849,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -1867,44 +1865,9 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E2BB9-476D-674D-9662-815EEA6B6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847F818-1373-2B47-BAA2-EAC31A969C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
   <si>
     <t>DOI</t>
   </si>
@@ -338,6 +338,21 @@
   </si>
   <si>
     <t>Concentration</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.add0509_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq3362_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scisignal.abq3362</t>
+  </si>
+  <si>
+    <t>Percents of CD206+ cells</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
   </si>
 </sst>
 </file>
@@ -738,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="211" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1173,10 +1188,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1188,19 +1203,19 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
         <v>59</v>
@@ -1208,7 +1223,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1217,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1243,34 +1258,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1278,7 +1293,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1287,13 +1302,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1302,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
         <v>103</v>
@@ -1313,34 +1328,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1348,34 +1363,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
@@ -1383,10 +1398,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1398,19 +1413,19 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>
@@ -1418,34 +1433,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
@@ -1453,10 +1468,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1468,19 +1483,19 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
@@ -1488,10 +1503,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1503,19 +1518,19 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
         <v>59</v>
@@ -1523,10 +1538,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1538,19 +1553,19 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
         <v>59</v>
@@ -1558,10 +1573,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1573,19 +1588,19 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
         <v>59</v>
@@ -1593,7 +1608,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1602,13 +1617,13 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>60</v>
@@ -1628,34 +1643,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
         <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
         <v>59</v>
@@ -1663,34 +1678,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
         <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
         <v>59</v>
@@ -1698,7 +1713,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1707,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1733,7 +1748,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1742,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1768,69 +1783,69 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
         <v>59</v>
@@ -1838,36 +1853,106 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>56</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H34" t="s">
         <v>57</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I34" t="s">
         <v>62</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J34" t="s">
         <v>103</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K34" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_signal/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_signal/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847F818-1373-2B47-BAA2-EAC31A969C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A373D45-18B0-5E4C-BE25-F6E128B5B2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>10.1126:scisignal.adi3966</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>CFU (log10)</t>
   </si>
   <si>
@@ -181,12 +178,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -353,6 +344,15 @@
   </si>
   <si>
     <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,7 +768,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -783,27 +783,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -818,19 +818,19 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -853,27 +853,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -888,27 +888,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -923,27 +923,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -958,27 +958,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -993,19 +993,19 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1028,27 +1028,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1063,27 +1063,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1098,27 +1098,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1133,27 +1133,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1168,30 +1168,30 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1203,27 +1203,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1238,27 +1238,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1273,27 +1273,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1308,27 +1308,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1343,27 +1343,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1378,27 +1378,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1413,27 +1413,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1448,27 +1448,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1483,27 +1483,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1518,27 +1518,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1553,27 +1553,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1588,27 +1588,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1623,27 +1623,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1658,27 +1658,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -1693,27 +1693,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1728,27 +1728,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1763,27 +1763,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1798,27 +1798,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -1833,27 +1833,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -1868,19 +1868,19 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1903,27 +1903,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1938,22 +1938,22 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
